--- a/Data/Excels/Syncolon/105_115/FarPoints_66.xlsx
+++ b/Data/Excels/Syncolon/105_115/FarPoints_66.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A102"/>
+  <dimension ref="A1:A92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -460,14 +460,14 @@
       <c r="A6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>128,00</t>
-        </is>
-      </c>
+      <c r="A7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>148,00</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
@@ -482,11 +482,7 @@
       <c r="A12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>602,00</t>
-        </is>
-      </c>
+      <c r="A13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr"/>
@@ -513,7 +509,11 @@
       <c r="A21" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr"/>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>1192,00</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr"/>
@@ -555,7 +555,11 @@
       <c r="A35" t="inlineStr"/>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr"/>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>868,00</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr"/>
@@ -585,11 +589,7 @@
       <c r="A45" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>704,00</t>
-        </is>
-      </c>
+      <c r="A46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr"/>
@@ -601,7 +601,11 @@
       <c r="A49" t="inlineStr"/>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr"/>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>1172,00</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr"/>
@@ -616,11 +620,7 @@
       <c r="A54" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>758,00</t>
-        </is>
-      </c>
+      <c r="A55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr"/>
@@ -647,7 +647,11 @@
       <c r="A63" t="inlineStr"/>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr"/>
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>1216,00</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr"/>
@@ -686,14 +690,14 @@
       <c r="A76" t="inlineStr"/>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>1092,00</t>
-        </is>
-      </c>
+      <c r="A77" t="inlineStr"/>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr"/>
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>926,00</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr"/>
@@ -735,43 +739,9 @@
       <c r="A91" t="inlineStr"/>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>688,00</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>372,00</t>
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>516,00</t>
         </is>
       </c>
     </row>
